--- a/BitnamiRedmineContainer/定義書_Redmineプラグイン一覧.xlsx
+++ b/BitnamiRedmineContainer/定義書_Redmineプラグイン一覧.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -47,14 +47,80 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/redmica/redmine_issues_panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone https://github.com/redmica/redmine_issues_panel.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">×</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バナー機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/akiko-pusu/redmine_banner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone https://github.com/akiko-pusu/redmine_banner.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絶対日付での表示機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/suer/redmine_absolute_dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone https://github.com/suer/redmine_absolute_dates.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サイドバー非表示機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gitlab.com/bdemirkir/sidebar_hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone https://gitlab.com/bdemirkir/sidebar_hide.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wikiリスト編集機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/tkusukawa/redmine_wiki_lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone https://github.com/tkusukawa/redmine_wiki_lists.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ledsun/redmine_wiki_page_tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone https://github.com/ledsun/redmine_wiki_page_tree.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チケットサマリ表示機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/suer/redmine_issues_summary_graph/tree/use-minimagick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone https://github.com/suer/redmine_issues_summary_graph.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グループ毎のユーザ表示機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/akira-kuriyama/redmine_assign_grouping</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="1"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">git clone </t>
     </r>
@@ -63,175 +129,19 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="1"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">https://github.com/redmica/redmine_issues_panel.git</t>
+      <t xml:space="preserve">https://github.com/akira-kuriyama/redmine_assign_grouping</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">×</t>
-  </si>
-  <si>
-    <t xml:space="preserve">○</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バナー機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/akiko-pusu/redmine_banner</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="1"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">git clone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/akiko-pusu/redmine_banner.git</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">絶対日付での表示機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/suer/redmine_absolute_dates</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">git clone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/suer/redmine_absolute_dates.git</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">サイドバー非表示機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gitlab.com/bdemirkir/sidebar_hide</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">git clone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://gitlab.com/bdemirkir/sidebar_hide.git</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Wikiリスト編集機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/tkusukawa/redmine_wiki_lists</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">git clone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/tkusukawa/redmine_wiki_lists.git</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/ledsun/redmine_wiki_page_tree</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">git clone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/ledsun/redmine_wiki_page_tree.git</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">チケットサマリ表示機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/suer/redmine_issues_summary_graph/tree/use-minimagick</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">git clone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/suer/redmine_issues_summary_graph.git</t>
+      <t xml:space="preserve">.git</t>
     </r>
   </si>
 </sst>
@@ -243,7 +153,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="游ゴシック"/>
@@ -280,6 +190,13 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -337,7 +254,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,6 +272,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -435,20 +364,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="62.35"/>
   </cols>
   <sheetData>
@@ -483,7 +412,7 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -494,17 +423,17 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -515,17 +444,17 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="5" t="n">
         <f aca="false">ROW()-1</f>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -536,17 +465,17 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <f aca="false">ROW()-1</f>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -557,17 +486,17 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <f aca="false">ROW()-1</f>
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -578,17 +507,17 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="5" t="n">
         <f aca="false">ROW()-1</f>
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -599,17 +528,17 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="5" t="n">
         <f aca="false">ROW()-1</f>
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -619,21 +548,44 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://github.com/redmica/redmine_issues_panel.git"/>
+    <hyperlink ref="D2" r:id="rId1" display="git clone https://github.com/redmica/redmine_issues_panel.git"/>
     <hyperlink ref="C3" r:id="rId2" display="https://github.com/akiko-pusu/redmine_banner"/>
-    <hyperlink ref="D3" r:id="rId3" display="https://github.com/akiko-pusu/redmine_banner.git"/>
+    <hyperlink ref="D3" r:id="rId3" display="git clone https://github.com/akiko-pusu/redmine_banner.git"/>
     <hyperlink ref="C4" r:id="rId4" display="https://github.com/suer/redmine_absolute_dates"/>
-    <hyperlink ref="D4" r:id="rId5" display="https://github.com/suer/redmine_absolute_dates.git"/>
+    <hyperlink ref="D4" r:id="rId5" display="git clone https://github.com/suer/redmine_absolute_dates.git"/>
     <hyperlink ref="C5" r:id="rId6" display="https://gitlab.com/bdemirkir/sidebar_hide"/>
-    <hyperlink ref="D5" r:id="rId7" display="https://gitlab.com/bdemirkir/sidebar_hide.git"/>
+    <hyperlink ref="D5" r:id="rId7" display="git clone https://gitlab.com/bdemirkir/sidebar_hide.git"/>
     <hyperlink ref="C6" r:id="rId8" display="https://github.com/tkusukawa/redmine_wiki_lists"/>
-    <hyperlink ref="D6" r:id="rId9" display="https://github.com/tkusukawa/redmine_wiki_lists.git"/>
+    <hyperlink ref="D6" r:id="rId9" display="git clone https://github.com/tkusukawa/redmine_wiki_lists.git"/>
     <hyperlink ref="C7" r:id="rId10" display="https://github.com/ledsun/redmine_wiki_page_tree"/>
-    <hyperlink ref="D7" r:id="rId11" display="https://github.com/ledsun/redmine_wiki_page_tree.git"/>
+    <hyperlink ref="D7" r:id="rId11" display="git clone https://github.com/ledsun/redmine_wiki_page_tree.git"/>
     <hyperlink ref="C8" r:id="rId12" display="https://github.com/suer/redmine_issues_summary_graph/tree/use-minimagick"/>
-    <hyperlink ref="D8" r:id="rId13" display="https://github.com/suer/redmine_issues_summary_graph.git"/>
+    <hyperlink ref="D8" r:id="rId13" display="git clone https://github.com/suer/redmine_issues_summary_graph.git"/>
+    <hyperlink ref="C9" r:id="rId14" display="https://github.com/akira-kuriyama/redmine_assign_grouping"/>
+    <hyperlink ref="D9" r:id="rId15" display="https://github.com/akira-kuriyama/redmine_assign_grouping"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
